--- a/Excel/Carga DB Postgres/Titular - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Titular - cargado.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playa\asd\sugpaDoc\Excel\Carga DB Postgres\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18675" windowHeight="7710"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>idtitular</t>
   </si>
@@ -55,9 +60,6 @@
   </si>
   <si>
     <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>DNI</t>
   </si>
   <si>
     <t>S/D</t>
@@ -285,8 +287,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +325,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +411,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +446,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,21 +622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,1164 +674,1164 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20000000,35000000)</f>
-        <v>23759663</v>
+        <v>23156441</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>3716</v>
+        <v>4483</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1414</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B30" ca="1" si="0">RANDBETWEEN(20000000,35000000)</f>
-        <v>33783412</v>
+        <v>26643230</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F30" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>5124</v>
+        <v>8672</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1414</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>31311956</v>
+        <v>31830545</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1716</v>
+        <v>8269</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>1414</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>26938310</v>
+        <v>29265084</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>9048</v>
+        <v>6641</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1414</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>34885701</v>
+        <v>27104762</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>5347</v>
+        <v>1912</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>1414</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>32885712</v>
+        <v>30460130</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>5336</v>
+        <v>4499</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>1414</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>22476064</v>
+        <v>22635417</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>6210</v>
+        <v>1471</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>1414</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>30019608</v>
+        <v>22004324</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>6255</v>
+        <v>3978</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>1414</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>31851641</v>
+        <v>26474431</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>1230</v>
+        <v>5607</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>1414</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>34216885</v>
+        <v>31940855</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>2411</v>
+        <v>6665</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>1414</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>30841835</v>
+        <v>30513038</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>7843</v>
+        <v>4482</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>1414</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>30733936</v>
+        <v>27450192</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>5292</v>
+        <v>1690</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>1414</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>21586187</v>
+        <v>28051246</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>5129</v>
+        <v>1203</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1414</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>30495282</v>
+        <v>25204783</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>8004</v>
+        <v>7877</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>1414</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
       </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>23772241</v>
+        <v>32842343</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>3708</v>
+        <v>1535</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>1414</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>31694570</v>
+        <v>23493694</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>8627</v>
+        <v>6529</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>1249</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>24129150</v>
+        <v>29814533</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>4603</v>
+        <v>3948</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <v>1249</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>25801153</v>
+        <v>31407188</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>8362</v>
+        <v>6398</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <v>1249</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>34052222</v>
+        <v>25068821</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>4664</v>
+        <v>9554</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20">
         <v>1249</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>24288235</v>
+        <v>31601427</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>6626</v>
+        <v>1149</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>1249</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>23131470</v>
+        <v>33537432</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>8882</v>
+        <v>8233</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22">
         <v>1001</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>23461158</v>
+        <v>33221513</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>6563</v>
+        <v>4961</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>1001</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>30614692</v>
+        <v>21598270</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>8337</v>
+        <v>8339</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24">
         <v>1001</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
       </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>29338464</v>
+        <v>21052261</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>7572</v>
+        <v>4681</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25">
         <v>1001</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
         <v>12</v>
       </c>
-      <c r="L25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>27910794</v>
+        <v>31670503</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>5586</v>
+        <v>8962</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26">
         <v>1001</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>26378973</v>
+        <v>26170369</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>2275</v>
+        <v>7189</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <v>1001</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s">
         <v>12</v>
       </c>
-      <c r="L27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>24290427</v>
+        <v>20534988</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>3418</v>
+        <v>3706</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28">
         <v>1001</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="L28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>24454304</v>
+        <v>25305695</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>2436</v>
+        <v>8065</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29">
         <v>1001</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>34628316</v>
+        <v>20927059</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>4282</v>
+        <v>8277</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30">
         <v>1001</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>
       </c>
-      <c r="L30" t="s">
-        <v>13</v>
+      <c r="L30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1828,24 +1840,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Carga DB Postgres/Titular - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Titular - cargado.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playa\asd\sugpaDoc\Excel\Carga DB Postgres\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18675" windowHeight="7710"/>
+    <workbookView xWindow="360" yWindow="336" windowWidth="18672" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>idtitular</t>
   </si>
@@ -287,8 +282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,10 +406,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +440,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,21 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,13 +667,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20000000,35000000)</f>
-        <v>23156441</v>
+        <v>34042367</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -693,10 +686,10 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>4483</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>1839</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -714,13 +707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B30" ca="1" si="0">RANDBETWEEN(20000000,35000000)</f>
-        <v>26643230</v>
+        <v>30929486</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -733,10 +726,10 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F30" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>8672</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>3309</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -754,13 +747,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>31830545</v>
+        <v>27119021</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -773,7 +766,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>8269</v>
+        <v>9227</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -794,13 +787,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>29265084</v>
+        <v>24920590</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -813,10 +806,10 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>6641</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+        <v>2552</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -834,13 +827,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>27104762</v>
+        <v>22554229</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -853,10 +846,10 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1912</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>3457</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -874,13 +867,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>30460130</v>
+        <v>25935886</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -893,10 +886,10 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>4499</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>5916</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -914,13 +907,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>22635417</v>
+        <v>33598764</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -933,10 +926,10 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>1471</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+        <v>3774</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -954,13 +947,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>22004324</v>
+        <v>32862409</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -973,10 +966,10 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>3978</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>6072</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -994,13 +987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>26474431</v>
+        <v>34488524</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1013,10 +1006,10 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>5607</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>5440</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1034,13 +1027,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>31940855</v>
+        <v>23361278</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1053,7 +1046,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>6665</v>
+        <v>3458</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1074,13 +1067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>30513038</v>
+        <v>30249203</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1093,10 +1086,10 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>4482</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
+        <v>6009</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1114,13 +1107,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>27450192</v>
+        <v>33043273</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1133,10 +1126,10 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>1690</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+        <v>3059</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1154,13 +1147,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>28051246</v>
+        <v>22104808</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1173,10 +1166,10 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>1203</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
+        <v>1886</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1194,13 +1187,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>25204783</v>
+        <v>22378903</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1213,10 +1206,10 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>7877</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
+        <v>3690</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1234,13 +1227,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>32842343</v>
+        <v>30316172</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1253,10 +1246,10 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>1535</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
+        <v>2784</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1274,13 +1267,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>23493694</v>
+        <v>30726670</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1293,10 +1286,10 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>6529</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
+        <v>8927</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1314,13 +1307,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>29814533</v>
+        <v>27593432</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1333,10 +1326,10 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>3948</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
+        <v>9878</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1354,13 +1347,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>31407188</v>
+        <v>28213716</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1373,10 +1366,10 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>6398</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>3266</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1394,13 +1387,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>25068821</v>
+        <v>34435442</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1413,10 +1406,10 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>9554</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
+        <v>7822</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1434,13 +1427,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>31601427</v>
+        <v>24817664</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1453,10 +1446,10 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>1149</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
+        <v>1415</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1474,13 +1467,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>33537432</v>
+        <v>22855139</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1493,10 +1486,10 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>8233</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
+        <v>5048</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1514,13 +1507,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>33221513</v>
+        <v>34204822</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1533,10 +1526,10 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>4961</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
+        <v>5852</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1554,13 +1547,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>21598270</v>
+        <v>28621286</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1573,10 +1566,10 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>8339</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
+        <v>9684</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1594,13 +1587,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>21052261</v>
+        <v>31456483</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1613,10 +1606,10 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>4681</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
+        <v>5410</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1634,13 +1627,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>31670503</v>
+        <v>27559246</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1653,7 +1646,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>8962</v>
+        <v>6960</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1674,13 +1667,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>26170369</v>
+        <v>26059979</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1693,10 +1686,10 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>7189</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
+        <v>6892</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1714,13 +1707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>20534988</v>
+        <v>30619318</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1733,10 +1726,10 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>3706</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
+        <v>7265</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1754,13 +1747,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>25305695</v>
+        <v>21209738</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -1773,10 +1766,10 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>8065</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
+        <v>9810</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1794,13 +1787,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>20927059</v>
+        <v>32578872</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1813,10 +1806,10 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>8277</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
+        <v>1174</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1840,24 +1833,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Carga DB Postgres/Titular - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Titular - cargado.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="87">
   <si>
     <t>idtitular</t>
   </si>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -672,8 +672,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(20000000,35000000)</f>
-        <v>34042367</v>
+        <v>32664508</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -685,8 +684,7 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(1000,10000)</f>
-        <v>1839</v>
+        <v>9092</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -712,8 +710,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B30" ca="1" si="0">RANDBETWEEN(20000000,35000000)</f>
-        <v>30929486</v>
+        <v>32314054</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -725,8 +722,7 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F30" ca="1" si="1">RANDBETWEEN(1000,10000)</f>
-        <v>3309</v>
+        <v>4338</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -752,8 +748,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27119021</v>
+        <v>25745226</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -765,8 +760,7 @@
         <v>67</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>9227</v>
+        <v>6907</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -792,8 +786,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>24920590</v>
+        <v>31787089</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -805,8 +798,7 @@
         <v>67</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2552</v>
+        <v>8138</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -832,8 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>22554229</v>
+        <v>24640767</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -845,8 +836,7 @@
         <v>68</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3457</v>
+        <v>2235</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -872,8 +862,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>25935886</v>
+        <v>33083663</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -885,8 +874,7 @@
         <v>69</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5916</v>
+        <v>3847</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -912,8 +900,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>33598764</v>
+        <v>33057353</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -925,8 +912,7 @@
         <v>69</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>3774</v>
+        <v>4319</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -952,8 +938,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>32862409</v>
+        <v>24548664</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -965,8 +950,7 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6072</v>
+        <v>8498</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -992,8 +976,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>34488524</v>
+        <v>28611835</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1005,8 +988,7 @@
         <v>71</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>5440</v>
+        <v>1058</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1032,8 +1014,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>23361278</v>
+        <v>32418577</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1045,8 +1026,7 @@
         <v>72</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3458</v>
+        <v>2788</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1072,8 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>30249203</v>
+        <v>27080764</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1085,8 +1064,7 @@
         <v>73</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6009</v>
+        <v>6315</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1112,8 +1090,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>33043273</v>
+        <v>30024794</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1125,8 +1102,7 @@
         <v>74</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
-        <v>3059</v>
+        <v>8268</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1152,8 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>22104808</v>
+        <v>21774405</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1165,8 +1140,7 @@
         <v>69</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1886</v>
+        <v>1524</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1192,8 +1166,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>22378903</v>
+        <v>24369150</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1205,8 +1178,7 @@
         <v>75</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3690</v>
+        <v>9377</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1232,8 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>30316172</v>
+        <v>21914251</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1245,8 +1216,7 @@
         <v>76</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2784</v>
+        <v>5039</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1272,8 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>30726670</v>
+        <v>26570513</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1285,8 +1254,7 @@
         <v>77</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>8927</v>
+        <v>3690</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1312,8 +1280,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>27593432</v>
+        <v>33438037</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1325,8 +1292,7 @@
         <v>78</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>9878</v>
+        <v>3727</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1352,8 +1318,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>28213716</v>
+        <v>25033923</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1365,8 +1330,7 @@
         <v>79</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>3266</v>
+        <v>8766</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -1392,8 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>34435442</v>
+        <v>30619769</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1405,8 +1368,7 @@
         <v>80</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7822</v>
+        <v>3395</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -1432,8 +1394,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24817664</v>
+        <v>25571880</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1445,8 +1406,7 @@
         <v>77</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1415</v>
+        <v>2329</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1472,8 +1432,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>22855139</v>
+        <v>24425014</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1485,8 +1444,7 @@
         <v>85</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>5048</v>
+        <v>1991</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1512,8 +1470,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>34204822</v>
+        <v>20120148</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1525,8 +1482,7 @@
         <v>81</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>5852</v>
+        <v>4758</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1552,8 +1508,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>28621286</v>
+        <v>28005596</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1565,8 +1520,7 @@
         <v>82</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>9684</v>
+        <v>3177</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1592,8 +1546,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>31456483</v>
+        <v>25809924</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1605,8 +1558,7 @@
         <v>83</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>5410</v>
+        <v>8786</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1632,8 +1584,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>27559246</v>
+        <v>32987399</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -1645,8 +1596,7 @@
         <v>84</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>6960</v>
+        <v>2528</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1672,8 +1622,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>26059979</v>
+        <v>26458665</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1685,8 +1634,7 @@
         <v>81</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>6892</v>
+        <v>6441</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1712,8 +1660,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>30619318</v>
+        <v>28949304</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1725,8 +1672,7 @@
         <v>85</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>7265</v>
+        <v>4033</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1752,8 +1698,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>21209738</v>
+        <v>34019534</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -1765,8 +1710,7 @@
         <v>86</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>9810</v>
+        <v>4733</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1792,8 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>32578872</v>
+        <v>23600007</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1805,8 +1748,7 @@
         <v>82</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1174</v>
+        <v>2399</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1825,6 +1767,2704 @@
       </c>
       <c r="L30">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>27141213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31">
+        <v>6488</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>1414</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>29480995</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>1044</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>1414</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25562741</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <v>6415</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>1414</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>32224259</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34">
+        <v>9133</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1414</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>24135550</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <v>4279</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>1414</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>22786396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>9075</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>1414</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>26671062</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>9874</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>1414</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>30515824</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>8119</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>1414</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>20095067</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <v>5781</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>1414</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>27132877</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>6674</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>1414</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>20711852</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41">
+        <v>8598</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>1414</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>30156007</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42">
+        <v>3695</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>1414</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>27950309</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43">
+        <v>1763</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>1414</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>23970703</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>4836</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>1414</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>22337136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45">
+        <v>3179</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>1414</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>31169305</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46">
+        <v>7358</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>1249</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>23208496</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47">
+        <v>6770</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>1249</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>33164335</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48">
+        <v>3749</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>1249</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>27795751</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49">
+        <v>5836</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>1249</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>26307623</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>2923</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>1249</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>34920960</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>8066</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>1001</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>32666515</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52">
+        <v>3330</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>1001</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>32307122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53">
+        <v>8466</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>1001</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>23111192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54">
+        <v>7452</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>1001</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>25459728</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55">
+        <v>5637</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55">
+        <v>1001</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>20886039</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <v>3585</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>1001</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>31926415</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>3527</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>1001</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>21294795</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58">
+        <v>7229</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>1001</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>29730411</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59">
+        <v>8053</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59">
+        <v>1001</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>25897264</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60">
+        <v>9562</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60">
+        <v>1414</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>33996552</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61">
+        <v>2822</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61">
+        <v>1414</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>26480984</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62">
+        <v>4406</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62">
+        <v>1414</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>24809892</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>9821</v>
+      </c>
+      <c r="G63">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>1414</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>26701855</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64">
+        <v>3673</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64">
+        <v>1414</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>30561188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65">
+        <v>7347</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65">
+        <v>1414</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>30595833</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66">
+        <v>5823</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66">
+        <v>1414</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>24510627</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67">
+        <v>3478</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67">
+        <v>1414</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>20701885</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>9697</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68">
+        <v>1414</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>25397887</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69">
+        <v>3610</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>1414</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>25139947</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70">
+        <v>7983</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70">
+        <v>1414</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>26067524</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71">
+        <v>1512</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71">
+        <v>1414</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>33010232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72">
+        <v>9339</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72">
+        <v>1414</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>28354362</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73">
+        <v>5382</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73">
+        <v>1414</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>25266829</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <v>3795</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74">
+        <v>1414</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>21988571</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75">
+        <v>7166</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75">
+        <v>1249</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>32580180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76">
+        <v>7192</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76">
+        <v>1249</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>21743872</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77">
+        <v>2021</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77">
+        <v>1249</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>30623852</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78">
+        <v>3648</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>1249</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>28614915</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <v>3679</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79">
+        <v>1249</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>23758581</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80">
+        <v>8063</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <v>1001</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>30614524</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81">
+        <v>3054</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81">
+        <v>1001</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>28607535</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82">
+        <v>7149</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>1001</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>21085127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83">
+        <v>5311</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83">
+        <v>1001</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>33087796</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84">
+        <v>9949</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>1001</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>28441453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85">
+        <v>7144</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>1001</v>
+      </c>
+      <c r="J85" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>21168848</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <v>2546</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>1001</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>24814700</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <v>1959</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>1001</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>21463683</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88">
+        <v>3049</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <v>1001</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>22512245</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89">
+        <v>9886</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <v>1414</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>23691537</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90">
+        <v>8803</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90">
+        <v>1414</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>29421836</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91">
+        <v>5044</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>1414</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>21084317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92">
+        <v>1503</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>1414</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>21001655</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93">
+        <v>1622</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93">
+        <v>1414</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>28507043</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94">
+        <v>7151</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94">
+        <v>1414</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>20371736</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95">
+        <v>4320</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95">
+        <v>1414</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>23290723</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96">
+        <v>2254</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96">
+        <v>1414</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>26724698</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97">
+        <v>2785</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97">
+        <v>1414</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>23472862</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" t="s">
+        <v>76</v>
+      </c>
+      <c r="F98">
+        <v>2904</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98">
+        <v>1414</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>34167674</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" t="s">
+        <v>77</v>
+      </c>
+      <c r="F99">
+        <v>7525</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99">
+        <v>1414</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>20480489</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" t="s">
+        <v>70</v>
+      </c>
+      <c r="F100">
+        <v>7352</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100">
+        <v>1414</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>34436804</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>71</v>
+      </c>
+      <c r="F101">
+        <v>8244</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101">
+        <v>1414</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Carga DB Postgres/Titular - cargado.xlsx
+++ b/Excel/Carga DB Postgres/Titular - cargado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="89">
   <si>
     <t>idtitular</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Reconquista</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>LE</t>
   </si>
 </sst>
 </file>
@@ -618,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -701,8 +707,8 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -739,8 +745,8 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="L3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -777,8 +783,8 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4">
-        <v>1</v>
+      <c r="L4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -815,8 +821,8 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
-        <v>1</v>
+      <c r="L5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -853,8 +859,8 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>1</v>
+      <c r="L6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -891,8 +897,8 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="L7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -929,8 +935,8 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-      <c r="L8">
-        <v>1</v>
+      <c r="L8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -967,8 +973,8 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="L9">
-        <v>1</v>
+      <c r="L9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1005,8 +1011,8 @@
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="L10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1043,8 +1049,8 @@
       <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="L11">
-        <v>1</v>
+      <c r="L11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1081,8 +1087,8 @@
       <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="L12">
-        <v>1</v>
+      <c r="L12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1119,8 +1125,8 @@
       <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>2</v>
+      <c r="L13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1157,8 +1163,8 @@
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14">
-        <v>2</v>
+      <c r="L14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1195,8 +1201,8 @@
       <c r="K15" t="s">
         <v>12</v>
       </c>
-      <c r="L15">
-        <v>2</v>
+      <c r="L15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1233,8 +1239,8 @@
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16">
-        <v>2</v>
+      <c r="L16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1271,8 +1277,8 @@
       <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="L17">
-        <v>2</v>
+      <c r="L17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1309,8 +1315,8 @@
       <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="L18">
-        <v>2</v>
+      <c r="L18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1347,8 +1353,8 @@
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1385,8 +1391,8 @@
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
-        <v>1</v>
+      <c r="L20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1423,8 +1429,8 @@
       <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="L21">
-        <v>1</v>
+      <c r="L21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1461,8 +1467,8 @@
       <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
-        <v>1</v>
+      <c r="L22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1499,8 +1505,8 @@
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23">
-        <v>1</v>
+      <c r="L23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1537,8 +1543,8 @@
       <c r="K24" t="s">
         <v>12</v>
       </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="L24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1575,8 +1581,8 @@
       <c r="K25" t="s">
         <v>12</v>
       </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="L25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1613,8 +1619,8 @@
       <c r="K26" t="s">
         <v>12</v>
       </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="L26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1651,8 +1657,8 @@
       <c r="K27" t="s">
         <v>12</v>
       </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="L27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1689,8 +1695,8 @@
       <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="L28">
-        <v>1</v>
+      <c r="L28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1727,8 +1733,8 @@
       <c r="K29" t="s">
         <v>12</v>
       </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="L29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1765,8 +1771,8 @@
       <c r="K30" t="s">
         <v>12</v>
       </c>
-      <c r="L30">
-        <v>1</v>
+      <c r="L30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1803,8 +1809,8 @@
       <c r="K31" t="s">
         <v>12</v>
       </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="L31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1841,8 +1847,8 @@
       <c r="K32" t="s">
         <v>12</v>
       </c>
-      <c r="L32">
-        <v>1</v>
+      <c r="L32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1879,8 +1885,8 @@
       <c r="K33" t="s">
         <v>12</v>
       </c>
-      <c r="L33">
-        <v>1</v>
+      <c r="L33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1917,8 +1923,8 @@
       <c r="K34" t="s">
         <v>12</v>
       </c>
-      <c r="L34">
-        <v>1</v>
+      <c r="L34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1955,8 +1961,8 @@
       <c r="K35" t="s">
         <v>12</v>
       </c>
-      <c r="L35">
-        <v>1</v>
+      <c r="L35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1993,8 +1999,8 @@
       <c r="K36" t="s">
         <v>12</v>
       </c>
-      <c r="L36">
-        <v>1</v>
+      <c r="L36" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2031,8 +2037,8 @@
       <c r="K37" t="s">
         <v>12</v>
       </c>
-      <c r="L37">
-        <v>1</v>
+      <c r="L37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2069,8 +2075,8 @@
       <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="L38">
-        <v>1</v>
+      <c r="L38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2107,8 +2113,8 @@
       <c r="K39" t="s">
         <v>12</v>
       </c>
-      <c r="L39">
-        <v>1</v>
+      <c r="L39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2145,8 +2151,8 @@
       <c r="K40" t="s">
         <v>12</v>
       </c>
-      <c r="L40">
-        <v>1</v>
+      <c r="L40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2183,8 +2189,8 @@
       <c r="K41" t="s">
         <v>12</v>
       </c>
-      <c r="L41">
-        <v>1</v>
+      <c r="L41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2221,8 +2227,8 @@
       <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="L42">
-        <v>2</v>
+      <c r="L42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2259,8 +2265,8 @@
       <c r="K43" t="s">
         <v>12</v>
       </c>
-      <c r="L43">
-        <v>2</v>
+      <c r="L43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2297,8 +2303,8 @@
       <c r="K44" t="s">
         <v>12</v>
       </c>
-      <c r="L44">
-        <v>2</v>
+      <c r="L44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2335,8 +2341,8 @@
       <c r="K45" t="s">
         <v>12</v>
       </c>
-      <c r="L45">
-        <v>2</v>
+      <c r="L45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2373,8 +2379,8 @@
       <c r="K46" t="s">
         <v>12</v>
       </c>
-      <c r="L46">
-        <v>2</v>
+      <c r="L46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2411,8 +2417,8 @@
       <c r="K47" t="s">
         <v>12</v>
       </c>
-      <c r="L47">
-        <v>2</v>
+      <c r="L47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2449,8 +2455,8 @@
       <c r="K48" t="s">
         <v>12</v>
       </c>
-      <c r="L48">
-        <v>1</v>
+      <c r="L48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2487,8 +2493,8 @@
       <c r="K49" t="s">
         <v>12</v>
       </c>
-      <c r="L49">
-        <v>1</v>
+      <c r="L49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2525,8 +2531,8 @@
       <c r="K50" t="s">
         <v>12</v>
       </c>
-      <c r="L50">
-        <v>1</v>
+      <c r="L50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2563,8 +2569,8 @@
       <c r="K51" t="s">
         <v>12</v>
       </c>
-      <c r="L51">
-        <v>1</v>
+      <c r="L51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2601,8 +2607,8 @@
       <c r="K52" t="s">
         <v>12</v>
       </c>
-      <c r="L52">
-        <v>1</v>
+      <c r="L52" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2639,8 +2645,8 @@
       <c r="K53" t="s">
         <v>12</v>
       </c>
-      <c r="L53">
-        <v>1</v>
+      <c r="L53" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2677,8 +2683,8 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54">
-        <v>1</v>
+      <c r="L54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2715,8 +2721,8 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55">
-        <v>1</v>
+      <c r="L55" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2753,8 +2759,8 @@
       <c r="K56" t="s">
         <v>12</v>
       </c>
-      <c r="L56">
-        <v>1</v>
+      <c r="L56" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2791,8 +2797,8 @@
       <c r="K57" t="s">
         <v>12</v>
       </c>
-      <c r="L57">
-        <v>1</v>
+      <c r="L57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2829,8 +2835,8 @@
       <c r="K58" t="s">
         <v>12</v>
       </c>
-      <c r="L58">
-        <v>1</v>
+      <c r="L58" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2867,8 +2873,8 @@
       <c r="K59" t="s">
         <v>12</v>
       </c>
-      <c r="L59">
-        <v>1</v>
+      <c r="L59" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2905,8 +2911,8 @@
       <c r="K60" t="s">
         <v>12</v>
       </c>
-      <c r="L60">
-        <v>1</v>
+      <c r="L60" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2943,8 +2949,8 @@
       <c r="K61" t="s">
         <v>12</v>
       </c>
-      <c r="L61">
-        <v>1</v>
+      <c r="L61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2981,8 +2987,8 @@
       <c r="K62" t="s">
         <v>12</v>
       </c>
-      <c r="L62">
-        <v>1</v>
+      <c r="L62" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3019,8 +3025,8 @@
       <c r="K63" t="s">
         <v>12</v>
       </c>
-      <c r="L63">
-        <v>1</v>
+      <c r="L63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3057,8 +3063,8 @@
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64">
-        <v>1</v>
+      <c r="L64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3095,8 +3101,8 @@
       <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="L65">
-        <v>1</v>
+      <c r="L65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3133,8 +3139,8 @@
       <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="L66">
-        <v>1</v>
+      <c r="L66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3171,8 +3177,8 @@
       <c r="K67" t="s">
         <v>12</v>
       </c>
-      <c r="L67">
-        <v>1</v>
+      <c r="L67" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3209,8 +3215,8 @@
       <c r="K68" t="s">
         <v>12</v>
       </c>
-      <c r="L68">
-        <v>1</v>
+      <c r="L68" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3247,8 +3253,8 @@
       <c r="K69" t="s">
         <v>12</v>
       </c>
-      <c r="L69">
-        <v>1</v>
+      <c r="L69" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3285,8 +3291,8 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70">
-        <v>1</v>
+      <c r="L70" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3323,8 +3329,8 @@
       <c r="K71" t="s">
         <v>12</v>
       </c>
-      <c r="L71">
-        <v>2</v>
+      <c r="L71" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3361,8 +3367,8 @@
       <c r="K72" t="s">
         <v>12</v>
       </c>
-      <c r="L72">
-        <v>2</v>
+      <c r="L72" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3399,8 +3405,8 @@
       <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="L73">
-        <v>2</v>
+      <c r="L73" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3437,8 +3443,8 @@
       <c r="K74" t="s">
         <v>12</v>
       </c>
-      <c r="L74">
-        <v>2</v>
+      <c r="L74" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3475,8 +3481,8 @@
       <c r="K75" t="s">
         <v>12</v>
       </c>
-      <c r="L75">
-        <v>2</v>
+      <c r="L75" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3513,8 +3519,8 @@
       <c r="K76" t="s">
         <v>12</v>
       </c>
-      <c r="L76">
-        <v>2</v>
+      <c r="L76" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3551,8 +3557,8 @@
       <c r="K77" t="s">
         <v>12</v>
       </c>
-      <c r="L77">
-        <v>1</v>
+      <c r="L77" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3589,8 +3595,8 @@
       <c r="K78" t="s">
         <v>12</v>
       </c>
-      <c r="L78">
-        <v>1</v>
+      <c r="L78" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3627,8 +3633,8 @@
       <c r="K79" t="s">
         <v>12</v>
       </c>
-      <c r="L79">
-        <v>1</v>
+      <c r="L79" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3665,8 +3671,8 @@
       <c r="K80" t="s">
         <v>12</v>
       </c>
-      <c r="L80">
-        <v>1</v>
+      <c r="L80" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3703,8 +3709,8 @@
       <c r="K81" t="s">
         <v>12</v>
       </c>
-      <c r="L81">
-        <v>1</v>
+      <c r="L81" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3741,8 +3747,8 @@
       <c r="K82" t="s">
         <v>12</v>
       </c>
-      <c r="L82">
-        <v>1</v>
+      <c r="L82" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3779,8 +3785,8 @@
       <c r="K83" t="s">
         <v>12</v>
       </c>
-      <c r="L83">
-        <v>1</v>
+      <c r="L83" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3817,8 +3823,8 @@
       <c r="K84" t="s">
         <v>12</v>
       </c>
-      <c r="L84">
-        <v>1</v>
+      <c r="L84" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3855,8 +3861,8 @@
       <c r="K85" t="s">
         <v>12</v>
       </c>
-      <c r="L85">
-        <v>1</v>
+      <c r="L85" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3893,8 +3899,8 @@
       <c r="K86" t="s">
         <v>12</v>
       </c>
-      <c r="L86">
-        <v>1</v>
+      <c r="L86" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3931,8 +3937,8 @@
       <c r="K87" t="s">
         <v>12</v>
       </c>
-      <c r="L87">
-        <v>1</v>
+      <c r="L87" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3969,8 +3975,8 @@
       <c r="K88" t="s">
         <v>12</v>
       </c>
-      <c r="L88">
-        <v>1</v>
+      <c r="L88" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4007,8 +4013,8 @@
       <c r="K89" t="s">
         <v>12</v>
       </c>
-      <c r="L89">
-        <v>1</v>
+      <c r="L89" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4045,8 +4051,8 @@
       <c r="K90" t="s">
         <v>12</v>
       </c>
-      <c r="L90">
-        <v>1</v>
+      <c r="L90" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4083,8 +4089,8 @@
       <c r="K91" t="s">
         <v>12</v>
       </c>
-      <c r="L91">
-        <v>1</v>
+      <c r="L91" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4121,8 +4127,8 @@
       <c r="K92" t="s">
         <v>12</v>
       </c>
-      <c r="L92">
-        <v>1</v>
+      <c r="L92" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4159,8 +4165,8 @@
       <c r="K93" t="s">
         <v>12</v>
       </c>
-      <c r="L93">
-        <v>1</v>
+      <c r="L93" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4197,8 +4203,8 @@
       <c r="K94" t="s">
         <v>12</v>
       </c>
-      <c r="L94">
-        <v>1</v>
+      <c r="L94" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4235,8 +4241,8 @@
       <c r="K95" t="s">
         <v>12</v>
       </c>
-      <c r="L95">
-        <v>1</v>
+      <c r="L95" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4273,8 +4279,8 @@
       <c r="K96" t="s">
         <v>12</v>
       </c>
-      <c r="L96">
-        <v>1</v>
+      <c r="L96" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4311,8 +4317,8 @@
       <c r="K97" t="s">
         <v>12</v>
       </c>
-      <c r="L97">
-        <v>1</v>
+      <c r="L97" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4349,8 +4355,8 @@
       <c r="K98" t="s">
         <v>12</v>
       </c>
-      <c r="L98">
-        <v>1</v>
+      <c r="L98" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4387,8 +4393,8 @@
       <c r="K99" t="s">
         <v>12</v>
       </c>
-      <c r="L99">
-        <v>1</v>
+      <c r="L99" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4425,8 +4431,8 @@
       <c r="K100" t="s">
         <v>12</v>
       </c>
-      <c r="L100">
-        <v>2</v>
+      <c r="L100" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4463,8 +4469,8 @@
       <c r="K101" t="s">
         <v>12</v>
       </c>
-      <c r="L101">
-        <v>2</v>
+      <c r="L101" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
